--- a/GDD/Design.xlsx
+++ b/GDD/Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>User info</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Bo qua</t>
+  </si>
+  <si>
+    <t>Jewels</t>
   </si>
 </sst>
 </file>
@@ -500,16 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -625,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H17">
         <v>3</v>
       </c>
@@ -642,7 +645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H18">
         <v>4</v>
       </c>
@@ -659,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H19">
         <v>5</v>
       </c>
@@ -676,12 +679,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,8 +703,11 @@
       <c r="L22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -712,10 +718,13 @@
         <v>27</v>
       </c>
       <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -726,31 +735,40 @@
         <v>19</v>
       </c>
       <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H25" t="s">
         <v>29</v>
       </c>
       <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25">
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>30</v>
       </c>
       <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -764,7 +782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
         <v>40</v>
       </c>
@@ -772,12 +790,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
